--- a/TestsMaquettesFonctionnelles/Ambroise/Saisir/maquette saisie rapport de visite.xlsx
+++ b/TestsMaquettesFonctionnelles/Ambroise/Saisir/maquette saisie rapport de visite.xlsx
@@ -58,52 +58,15 @@
     <t xml:space="preserve">3, 4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Saisie complète du rapport de saisie, case "Saisie définitive" cochée, enregistrement valide.
+    <t xml:space="preserve">Saisie complète du rapport de saisie, case "Saisie définitive" cochée, enregistrement valide.
 Praticien visité : Ain Jean-Pierre – LAON
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Praticien de remplacement : Coste Evelyne 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Motif de la visite : Périodicité
+Praticien de remplacement : Coste Evelyne 
+Motif de la visite : Périodicité
 Bilan de la visite :test
 Coefficient de confiance : 4 
 Médicament présenté 1 : JOVENIL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Médicament présenté 2 : EQUILAR
+Médicament présenté 2 : EQUILAR
 Echantillon offert : AMOPIL quantite 1</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Le système enregistre le rapport dans la base de données dans rapport_visite
@@ -201,10 +164,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,6 +238,127 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>690120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3183840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Image 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690120" y="4713840"/>
+          <a:ext cx="10011600" cy="285120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>232200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4368960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Image 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1122480" y="5737320"/>
+          <a:ext cx="10764360" cy="4953240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId2"/>
+          <a:stretch/>
+        </a:blipFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>IMAGE2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="fr-FR" sz="1200" strike="noStrike" u="none">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,7 +542,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,5 +673,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>